--- a/data/trans_orig/P43C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Edad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>122846</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105503</v>
+        <v>105908</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141555</v>
+        <v>144152</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2659801148517706</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2284288044970814</v>
+        <v>0.2293061771244074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3064876598261944</v>
+        <v>0.3121101159050248</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>339017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>320308</v>
+        <v>317711</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>356360</v>
+        <v>355955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7340198851482294</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6935123401738056</v>
+        <v>0.6878898840949752</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7715711955029185</v>
+        <v>0.7706938228755924</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>389496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>366207</v>
+        <v>365469</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>414760</v>
+        <v>416543</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6287113730581386</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.591118460002604</v>
+        <v>0.5899276007256868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6694910409723932</v>
+        <v>0.6723692510268851</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>230019</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>204755</v>
+        <v>202972</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>253308</v>
+        <v>254046</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3712886269418614</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3305089590276069</v>
+        <v>0.3276307489731151</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4088815399973959</v>
+        <v>0.4100723992743132</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>492505</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>468259</v>
+        <v>468307</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>515099</v>
+        <v>516265</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7169585128172883</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6816629303215678</v>
+        <v>0.6817327609818564</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7498493711728664</v>
+        <v>0.7515471694211907</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>194431</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>171837</v>
+        <v>170671</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>218677</v>
+        <v>218629</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2830414871827117</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2501506288271332</v>
+        <v>0.2484528305788093</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.318337069678432</v>
+        <v>0.3182672390181439</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>366661</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>346514</v>
+        <v>346657</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>387765</v>
+        <v>386492</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7229239676463095</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6832007723866044</v>
+        <v>0.6834834482576981</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7645324161477005</v>
+        <v>0.7620233213598038</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>140531</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>119427</v>
+        <v>120700</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>160678</v>
+        <v>160535</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2770760323536905</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2354675838522995</v>
+        <v>0.2379766786401963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3167992276133955</v>
+        <v>0.3165165517423019</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>223832</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>204415</v>
+        <v>203623</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>242791</v>
+        <v>244136</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5654605129316498</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5164075768333024</v>
+        <v>0.5144068410690145</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6133568449989966</v>
+        <v>0.6167551310049761</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>172008</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>153049</v>
+        <v>151704</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>191425</v>
+        <v>192217</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4345394870683503</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3866431550010037</v>
+        <v>0.3832448689950236</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4835924231666979</v>
+        <v>0.4855931589309849</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>130436</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>113765</v>
+        <v>115570</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>147509</v>
+        <v>149587</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3885813333844531</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3389153019202739</v>
+        <v>0.3442920737926322</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4394430558102482</v>
+        <v>0.4456333144941987</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>205237</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>188164</v>
+        <v>186086</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>221908</v>
+        <v>220103</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.611418666615547</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5605569441897518</v>
+        <v>0.5543666855058013</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6610846980797261</v>
+        <v>0.6557079262073678</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>64572</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50477</v>
+        <v>50540</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>79680</v>
+        <v>80696</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2017683382626256</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1577248613517884</v>
+        <v>0.1579231351397362</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2489770400725532</v>
+        <v>0.2521517505260391</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>255459</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>240351</v>
+        <v>239335</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>269554</v>
+        <v>269491</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7982316617373744</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7510229599274467</v>
+        <v>0.7478482494739609</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8422751386482116</v>
+        <v>0.8420768648602638</v>
       </c>
     </row>
     <row r="24">
@@ -1261,19 +1261,19 @@
         <v>1790349</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1730800</v>
+        <v>1725205</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1846091</v>
+        <v>1843944</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5381189638425683</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5202205148780882</v>
+        <v>0.5185389829580822</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5548732931486725</v>
+        <v>0.5542279318459997</v>
       </c>
     </row>
     <row r="26">
@@ -1290,19 +1290,19 @@
         <v>1536701</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1480959</v>
+        <v>1483106</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1596250</v>
+        <v>1601845</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4618810361574317</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4451267068513274</v>
+        <v>0.4457720681540002</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4797794851219119</v>
+        <v>0.4814610170419177</v>
       </c>
     </row>
     <row r="27">
@@ -1473,19 +1473,19 @@
         <v>167377</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>145253</v>
+        <v>147683</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>187302</v>
+        <v>186525</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.391694971867408</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3399204872209415</v>
+        <v>0.3456083976617247</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4383234599514074</v>
+        <v>0.4365045506776842</v>
       </c>
     </row>
     <row r="5">
@@ -1502,19 +1502,19 @@
         <v>259937</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>240012</v>
+        <v>240789</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>282061</v>
+        <v>279631</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.608305028132592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5616765400485926</v>
+        <v>0.5634954493223158</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6600795127790585</v>
+        <v>0.6543916023382752</v>
       </c>
     </row>
     <row r="6">
@@ -1564,19 +1564,19 @@
         <v>452021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>428188</v>
+        <v>427607</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>472540</v>
+        <v>472893</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7461589381594276</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7068176775994196</v>
+        <v>0.70585890682678</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7800302659795935</v>
+        <v>0.7806122534042292</v>
       </c>
     </row>
     <row r="8">
@@ -1593,19 +1593,19 @@
         <v>153776</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133257</v>
+        <v>132904</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>177609</v>
+        <v>178190</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2538410618405725</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2199697340204065</v>
+        <v>0.2193877465957708</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2931823224005804</v>
+        <v>0.29414109317322</v>
       </c>
     </row>
     <row r="9">
@@ -1655,19 +1655,19 @@
         <v>575284</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>554288</v>
+        <v>552420</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>596984</v>
+        <v>596726</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8150312240232093</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7852850789950938</v>
+        <v>0.7826380315923862</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8457746454933354</v>
+        <v>0.8454092720520999</v>
       </c>
     </row>
     <row r="11">
@@ -1684,19 +1684,19 @@
         <v>130559</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>108859</v>
+        <v>109117</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>151555</v>
+        <v>153423</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1849687759767907</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1542253545066648</v>
+        <v>0.1545907279479</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2147149210049062</v>
+        <v>0.2173619684076137</v>
       </c>
     </row>
     <row r="12">
@@ -1746,19 +1746,19 @@
         <v>492093</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>470648</v>
+        <v>471493</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>511581</v>
+        <v>511812</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7985946610876152</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7637921005837974</v>
+        <v>0.7651641362972768</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8302204883109096</v>
+        <v>0.8305951137940732</v>
       </c>
     </row>
     <row r="14">
@@ -1775,19 +1775,19 @@
         <v>124106</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>104618</v>
+        <v>104387</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>145551</v>
+        <v>144706</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2014053389123848</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1697795116890902</v>
+        <v>0.1694048862059266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2362078994162026</v>
+        <v>0.2348358637027231</v>
       </c>
     </row>
     <row r="15">
@@ -1837,19 +1837,19 @@
         <v>316156</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>295948</v>
+        <v>294816</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>335203</v>
+        <v>335857</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7172257657327822</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6713817833710526</v>
+        <v>0.6688142027049071</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7604344337255983</v>
+        <v>0.7619195236847423</v>
       </c>
     </row>
     <row r="17">
@@ -1866,19 +1866,19 @@
         <v>124648</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>105601</v>
+        <v>104947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>144856</v>
+        <v>145988</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2827742342672178</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2395655662744017</v>
+        <v>0.2380804763152578</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3286182166289471</v>
+        <v>0.331185797295093</v>
       </c>
     </row>
     <row r="18">
@@ -1928,19 +1928,19 @@
         <v>179974</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>162351</v>
+        <v>162209</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>199340</v>
+        <v>198343</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.515572121097143</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4650889573037134</v>
+        <v>0.4646814808172621</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5710499038983153</v>
+        <v>0.5681936427427553</v>
       </c>
     </row>
     <row r="20">
@@ -1957,19 +1957,19 @@
         <v>169102</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>149736</v>
+        <v>150733</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>186725</v>
+        <v>186867</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.484427878902857</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4289500961016845</v>
+        <v>0.4318063572572448</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5349110426962866</v>
+        <v>0.535318519182738</v>
       </c>
     </row>
     <row r="21">
@@ -2019,19 +2019,19 @@
         <v>110072</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>92726</v>
+        <v>91953</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>131201</v>
+        <v>129061</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2917187390921862</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2457471694190078</v>
+        <v>0.243699710296185</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3477172292502309</v>
+        <v>0.3420467554713674</v>
       </c>
     </row>
     <row r="23">
@@ -2048,19 +2048,19 @@
         <v>267249</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>246120</v>
+        <v>248260</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>284595</v>
+        <v>285368</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7082812609078137</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6522827707497691</v>
+        <v>0.6579532445286326</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7542528305809924</v>
+        <v>0.756300289703815</v>
       </c>
     </row>
     <row r="24">
@@ -2110,19 +2110,19 @@
         <v>2292976</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2230971</v>
+        <v>2232848</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2347645</v>
+        <v>2351253</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6509784238645352</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6333750864083513</v>
+        <v>0.6339079466856339</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6664989728235774</v>
+        <v>0.667523406241641</v>
       </c>
     </row>
     <row r="26">
@@ -2139,19 +2139,19 @@
         <v>1229377</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1174708</v>
+        <v>1171100</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1291382</v>
+        <v>1289505</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3490215761354648</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3335010271764227</v>
+        <v>0.332476593758359</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3666249135916487</v>
+        <v>0.3660920533143661</v>
       </c>
     </row>
     <row r="27">
@@ -2322,19 +2322,19 @@
         <v>164759</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>145365</v>
+        <v>146139</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>183003</v>
+        <v>183945</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4271474777602131</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.376868684834414</v>
+        <v>0.3788735649041471</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4744465753087912</v>
+        <v>0.4768875310619671</v>
       </c>
     </row>
     <row r="5">
@@ -2351,19 +2351,19 @@
         <v>220960</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>202716</v>
+        <v>201774</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>240354</v>
+        <v>239580</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5728525222397869</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5255534246912087</v>
+        <v>0.5231124689380329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.623131315165586</v>
+        <v>0.6211264350958529</v>
       </c>
     </row>
     <row r="6">
@@ -2413,19 +2413,19 @@
         <v>379048</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>356450</v>
+        <v>357356</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>400902</v>
+        <v>398678</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6749629221035395</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6347239112076919</v>
+        <v>0.6363364075123061</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.713878041179781</v>
+        <v>0.7099177170286878</v>
       </c>
     </row>
     <row r="8">
@@ -2442,19 +2442,19 @@
         <v>182535</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>160681</v>
+        <v>162905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>205133</v>
+        <v>204227</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3250370778964605</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.286121958820219</v>
+        <v>0.2900822829713122</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3652760887923081</v>
+        <v>0.3636635924876939</v>
       </c>
     </row>
     <row r="9">
@@ -2504,19 +2504,19 @@
         <v>518258</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>497094</v>
+        <v>497755</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>538366</v>
+        <v>538548</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7887281493193635</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7565179925508587</v>
+        <v>0.7575240798029418</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8193296987524338</v>
+        <v>0.8196066781433635</v>
       </c>
     </row>
     <row r="11">
@@ -2533,19 +2533,19 @@
         <v>138823</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>118715</v>
+        <v>118533</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>159987</v>
+        <v>159326</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2112718506806365</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1806703012475663</v>
+        <v>0.1803933218566366</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2434820074491414</v>
+        <v>0.2424759201970582</v>
       </c>
     </row>
     <row r="12">
@@ -2595,19 +2595,19 @@
         <v>492828</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>472395</v>
+        <v>468528</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>513978</v>
+        <v>514553</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7659670325759612</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7342096526968405</v>
+        <v>0.7281990291113173</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7988393427201819</v>
+        <v>0.7997324695736555</v>
       </c>
     </row>
     <row r="14">
@@ -2624,19 +2624,19 @@
         <v>150578</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>129428</v>
+        <v>128853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>171011</v>
+        <v>174878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2340329674240387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2011606572798182</v>
+        <v>0.2002675304263445</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2657903473031595</v>
+        <v>0.2718009708886827</v>
       </c>
     </row>
     <row r="15">
@@ -2686,19 +2686,19 @@
         <v>332757</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>308910</v>
+        <v>311012</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>352514</v>
+        <v>353466</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6739803559457832</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6256803245019148</v>
+        <v>0.6299372419219416</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7139966958562763</v>
+        <v>0.7159255724182012</v>
       </c>
     </row>
     <row r="17">
@@ -2715,19 +2715,19 @@
         <v>160962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>141205</v>
+        <v>140253</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>184809</v>
+        <v>182707</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3260196440542168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2860033041437236</v>
+        <v>0.284074427581798</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.374319675498085</v>
+        <v>0.3700627580780583</v>
       </c>
     </row>
     <row r="18">
@@ -2777,19 +2777,19 @@
         <v>216106</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>195410</v>
+        <v>197089</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>234652</v>
+        <v>234981</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5798546089635709</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5243240983645095</v>
+        <v>0.5288270301294583</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6296172553414393</v>
+        <v>0.6305011886116128</v>
       </c>
     </row>
     <row r="20">
@@ -2806,19 +2806,19 @@
         <v>156584</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>138038</v>
+        <v>137709</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>177280</v>
+        <v>175601</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4201453910364292</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3703827446585606</v>
+        <v>0.3694988113883872</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4756759016354905</v>
+        <v>0.4711729698705416</v>
       </c>
     </row>
     <row r="21">
@@ -2868,19 +2868,19 @@
         <v>138471</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>117240</v>
+        <v>119021</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>158806</v>
+        <v>163291</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3528160096163613</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2987208293659998</v>
+        <v>0.3032578736363303</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4046262077922027</v>
+        <v>0.4160547582283626</v>
       </c>
     </row>
     <row r="23">
@@ -2897,19 +2897,19 @@
         <v>254004</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233669</v>
+        <v>229184</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>275235</v>
+        <v>273454</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6471839903836387</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5953737922077973</v>
+        <v>0.5839452417716379</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7012791706340001</v>
+        <v>0.6967421263636697</v>
       </c>
     </row>
     <row r="24">
@@ -2959,19 +2959,19 @@
         <v>2242226</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2187883</v>
+        <v>2186278</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2299293</v>
+        <v>2303313</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6394171953292009</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6239200703340392</v>
+        <v>0.623462457887602</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6556910068448542</v>
+        <v>0.6568374336463259</v>
       </c>
     </row>
     <row r="26">
@@ -2988,19 +2988,19 @@
         <v>1264446</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1207379</v>
+        <v>1203359</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1318789</v>
+        <v>1320394</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3605828046707991</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3443089931551455</v>
+        <v>0.343162566353674</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3760799296659606</v>
+        <v>0.3765375421123973</v>
       </c>
     </row>
     <row r="27">
@@ -3171,19 +3171,19 @@
         <v>47925</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32038</v>
+        <v>31910</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66589</v>
+        <v>67806</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1585327181352297</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1059801980236623</v>
+        <v>0.1055575999158756</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.220274634802736</v>
+        <v>0.2242998783439183</v>
       </c>
     </row>
     <row r="5">
@@ -3200,19 +3200,19 @@
         <v>254377</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>235713</v>
+        <v>234496</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>270264</v>
+        <v>270392</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8414672818647704</v>
+        <v>0.8414672818647703</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7797253651972638</v>
+        <v>0.7757001216560817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8940198019763376</v>
+        <v>0.8944424000841243</v>
       </c>
     </row>
     <row r="6">
@@ -3262,19 +3262,19 @@
         <v>191544</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>169587</v>
+        <v>169913</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>211008</v>
+        <v>209673</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5203219711236582</v>
+        <v>0.5203219711236581</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4606787510507856</v>
+        <v>0.4615630875604761</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5731960460154794</v>
+        <v>0.5695692735779254</v>
       </c>
     </row>
     <row r="8">
@@ -3291,19 +3291,19 @@
         <v>176581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>157117</v>
+        <v>158452</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>198538</v>
+        <v>198212</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.479678028876342</v>
+        <v>0.4796780288763419</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4268039539845207</v>
+        <v>0.4304307264220746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5393212489492144</v>
+        <v>0.538436912439524</v>
       </c>
     </row>
     <row r="9">
@@ -3353,19 +3353,19 @@
         <v>289809</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>274144</v>
+        <v>272659</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>304710</v>
+        <v>304660</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6845838121165281</v>
+        <v>0.6845838121165279</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6475791307118186</v>
+        <v>0.6440731969889361</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7197838419401289</v>
+        <v>0.7196649672429637</v>
       </c>
     </row>
     <row r="11">
@@ -3382,19 +3382,19 @@
         <v>133527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>118626</v>
+        <v>118676</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149192</v>
+        <v>150677</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3154161878834721</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2802161580598712</v>
+        <v>0.2803350327570361</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3524208692881815</v>
+        <v>0.355926803011064</v>
       </c>
     </row>
     <row r="12">
@@ -3444,19 +3444,19 @@
         <v>380803</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>366484</v>
+        <v>364825</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>396995</v>
+        <v>395841</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7510219311249657</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7227818200628288</v>
+        <v>0.7195092683771802</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.782954824704249</v>
+        <v>0.780678928356638</v>
       </c>
     </row>
     <row r="14">
@@ -3473,19 +3473,19 @@
         <v>126244</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110052</v>
+        <v>111206</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>140563</v>
+        <v>142222</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2489780688750341</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.217045175295751</v>
+        <v>0.2193210716433622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2772181799371713</v>
+        <v>0.28049073162282</v>
       </c>
     </row>
     <row r="15">
@@ -3535,19 +3535,19 @@
         <v>314100</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>299659</v>
+        <v>299459</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>327989</v>
+        <v>328794</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7063177480725047</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6738435025979078</v>
+        <v>0.6733940740360097</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7375496595641114</v>
+        <v>0.7393593052136112</v>
       </c>
     </row>
     <row r="17">
@@ -3564,19 +3564,19 @@
         <v>130601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>116712</v>
+        <v>115907</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>145042</v>
+        <v>145242</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2936822519274954</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2624503404358885</v>
+        <v>0.2606406947863887</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3261564974020922</v>
+        <v>0.3266059259639901</v>
       </c>
     </row>
     <row r="18">
@@ -3626,19 +3626,19 @@
         <v>215701</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>201977</v>
+        <v>202318</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>228865</v>
+        <v>228983</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.62469623216111</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5849474726418732</v>
+        <v>0.5859351626007987</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6628207630707238</v>
+        <v>0.663161483244527</v>
       </c>
     </row>
     <row r="20">
@@ -3655,19 +3655,19 @@
         <v>129589</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116425</v>
+        <v>116307</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>143313</v>
+        <v>142972</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.37530376783889</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.337179236929276</v>
+        <v>0.3368385167554731</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4150525273581261</v>
+        <v>0.4140648373992013</v>
       </c>
     </row>
     <row r="21">
@@ -3717,19 +3717,19 @@
         <v>170713</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>155893</v>
+        <v>154859</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>186537</v>
+        <v>184391</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4387583217826471</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4006702787050659</v>
+        <v>0.3980122601042733</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.479428750355148</v>
+        <v>0.4739133653276574</v>
       </c>
     </row>
     <row r="23">
@@ -3746,19 +3746,19 @@
         <v>218368</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>202544</v>
+        <v>204690</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>233188</v>
+        <v>234222</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5612416782173529</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5205712496448525</v>
+        <v>0.5260866346723426</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5993297212949342</v>
+        <v>0.6019877398957268</v>
       </c>
     </row>
     <row r="24">
@@ -3808,19 +3808,19 @@
         <v>1610595</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1562097</v>
+        <v>1561848</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1656945</v>
+        <v>1659118</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5793751845427149</v>
+        <v>0.5793751845427151</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5619294092235907</v>
+        <v>0.5618397888916334</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5960486258011589</v>
+        <v>0.5968302605884683</v>
       </c>
     </row>
     <row r="26">
@@ -3837,19 +3837,19 @@
         <v>1169287</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1122937</v>
+        <v>1120764</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1217785</v>
+        <v>1218034</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.420624815457285</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.403951374198841</v>
+        <v>0.4031697394115318</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4380705907764085</v>
+        <v>0.4381602111083664</v>
       </c>
     </row>
     <row r="27">
